--- a/aat/src/resource/CCD_CNP_27_Valid_CaseRole.xlsx
+++ b/aat/src/resource/CCD_CNP_27_Valid_CaseRole.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/support/ccd-definition-store-api/aat/src/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B219B18A-FBB3-DD44-A8B9-485D8A24DE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A22BEBD-8FD2-6D41-A112-AD656E24C62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="29180" windowHeight="16620" tabRatio="823" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="29180" windowHeight="16620" tabRatio="823" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2692" uniqueCount="297">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -955,9 +955,6 @@
   </si>
   <si>
     <t>idam:caseworker-autotest1</t>
-  </si>
-  <si>
-    <t>[INTVRSOLICITOR1$]</t>
   </si>
 </sst>
 </file>
@@ -9828,7 +9825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AE9A4E-608E-114F-953B-9575668BD177}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -9892,7 +9889,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>296</v>
@@ -9909,10 +9906,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>278</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>297</v>
+        <v>274</v>
+      </c>
+      <c r="C5" t="s">
+        <v>285</v>
       </c>
       <c r="E5" t="s">
         <v>294</v>
@@ -11126,7 +11123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C85298-7905-EF4B-8743-1306ED2AB56E}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -11199,7 +11196,7 @@
         <v>43466</v>
       </c>
       <c r="C4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D4" t="s">
         <v>285</v>
@@ -11223,8 +11220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
